--- a/static/files/批量导入客户.xlsx
+++ b/static/files/批量导入客户.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,59 +32,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>咨询课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咨询课程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linux运维</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python全栈开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Go语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python自动化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3</t>
+    <t>性别(1-男,2-女)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,180 +101,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -337,43 +116,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -680,41 +426,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -724,95 +472,15 @@
       <c r="C2" s="2">
         <v>123456789</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="15">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="12">
-        <v>2</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="12">
-        <v>3</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="9">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B25"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
